--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-10.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2883"/>
+  <dimension ref="A1:H2861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89605,10 +89605,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2774">
@@ -89631,10 +89629,8 @@
       <c r="E2774" t="inlineStr"/>
       <c r="F2774" t="inlineStr"/>
       <c r="G2774" t="inlineStr"/>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2775">
@@ -89661,10 +89657,8 @@
       </c>
       <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr"/>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2776">
@@ -89691,10 +89685,8 @@
       </c>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr"/>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2777">
@@ -89721,10 +89713,8 @@
       </c>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2778">
@@ -89747,10 +89737,8 @@
       <c r="E2778" t="inlineStr"/>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2779">
@@ -89781,10 +89769,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -89815,10 +89801,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2781">
@@ -89849,10 +89833,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2782">
@@ -89883,10 +89865,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2783">
@@ -89917,10 +89897,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -89951,10 +89929,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -89985,10 +89961,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2786">
@@ -90015,10 +89989,8 @@
       </c>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -90045,10 +90017,8 @@
       </c>
       <c r="F2787" t="inlineStr"/>
       <c r="G2787" t="inlineStr"/>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -90075,10 +90045,8 @@
       </c>
       <c r="F2788" t="inlineStr"/>
       <c r="G2788" t="inlineStr"/>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -90105,10 +90073,8 @@
       </c>
       <c r="F2789" t="inlineStr"/>
       <c r="G2789" t="inlineStr"/>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
@@ -90135,10 +90101,8 @@
       </c>
       <c r="F2790" t="inlineStr"/>
       <c r="G2790" t="inlineStr"/>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2791">
@@ -90165,10 +90129,8 @@
       </c>
       <c r="F2791" t="inlineStr"/>
       <c r="G2791" t="inlineStr"/>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -90191,10 +90153,8 @@
       </c>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -90217,10 +90177,8 @@
       </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -90243,10 +90201,8 @@
       </c>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -90269,10 +90225,8 @@
       </c>
       <c r="F2795" t="inlineStr"/>
       <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -90295,10 +90249,8 @@
       </c>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -90321,106 +90273,128 @@
       </c>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
       <c r="A2798" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2798" t="inlineStr"/>
-      <c r="C2798" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2798" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2798" t="inlineStr">
+        <is>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+        </is>
+      </c>
       <c r="D2798" t="inlineStr"/>
-      <c r="E2798" t="inlineStr"/>
+      <c r="E2798" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2798" t="inlineStr"/>
-      <c r="G2798" t="inlineStr"/>
-      <c r="H2798" t="inlineStr"/>
+      <c r="G2798" t="inlineStr">
+        <is>
+          <t>20200%</t>
+        </is>
+      </c>
+      <c r="H2798" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2799">
       <c r="A2799" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2799" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2799" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2799" t="inlineStr"/>
       <c r="E2799" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="H2799" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2800">
       <c r="A2800" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2800" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2800" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2800" t="inlineStr"/>
-      <c r="E2800" t="inlineStr"/>
+      <c r="E2800" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr"/>
       <c r="H2800" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2801">
       <c r="A2801" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2801" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2801" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2801" t="inlineStr"/>
       <c r="E2801" t="inlineStr">
         <is>
-          <t>$6.82T</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2801" t="inlineStr"/>
@@ -90434,217 +90408,221 @@
     <row r="2802">
       <c r="A2802" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2802" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2802" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2802" t="inlineStr"/>
       <c r="E2802" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2802" t="inlineStr"/>
-      <c r="G2802" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2802" t="inlineStr"/>
       <c r="H2802" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2803">
       <c r="A2803" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2803" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2803" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2803" t="inlineStr"/>
-      <c r="E2803" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2803" t="inlineStr"/>
       <c r="F2803" t="inlineStr"/>
-      <c r="G2803" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2803" t="inlineStr"/>
       <c r="H2803" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2804">
       <c r="A2804" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2804" t="inlineStr"/>
       <c r="E2804" t="inlineStr">
         <is>
-          <t>$155.7B</t>
+          <t>0.52%</t>
         </is>
       </c>
       <c r="F2804" t="inlineStr"/>
-      <c r="G2804" t="inlineStr"/>
+      <c r="G2804" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2804" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2805">
       <c r="A2805" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2805" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2805" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2805" t="inlineStr"/>
       <c r="E2805" t="inlineStr">
         <is>
-          <t>0.3248%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="F2805" t="inlineStr"/>
-      <c r="G2805" t="inlineStr"/>
+      <c r="G2805" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="H2805" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2806">
       <c r="A2806" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2806" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2806" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2806" t="inlineStr"/>
       <c r="E2806" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F2806" t="inlineStr"/>
-      <c r="G2806" t="inlineStr"/>
+      <c r="G2806" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2806" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2807">
       <c r="A2807" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2807" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2807" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2807" t="inlineStr"/>
       <c r="E2807" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2807" t="inlineStr"/>
-      <c r="G2807" t="inlineStr"/>
+      <c r="G2807" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H2807" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2808">
       <c r="A2808" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2808" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2808" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2808" t="inlineStr"/>
       <c r="E2808" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr">
         <is>
-          <t>115.9</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2808" t="inlineStr">
@@ -90656,29 +90634,29 @@
     <row r="2809">
       <c r="A2809" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2809" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2809" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2809" t="inlineStr"/>
       <c r="E2809" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr">
         <is>
-          <t>108.2</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2809" t="inlineStr">
@@ -90690,29 +90668,29 @@
     <row r="2810">
       <c r="A2810" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2810" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2810" t="inlineStr"/>
       <c r="E2810" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2810" t="inlineStr">
@@ -90724,97 +90702,97 @@
     <row r="2811">
       <c r="A2811" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2811" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2811" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2811" t="inlineStr"/>
       <c r="E2811" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2811" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2812">
       <c r="A2812" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2812" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2812" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2812" t="inlineStr"/>
       <c r="E2812" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2812" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2813">
       <c r="A2813" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2813" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2813" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2813" t="inlineStr"/>
       <c r="E2813" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2813" t="inlineStr">
@@ -90826,61 +90804,65 @@
     <row r="2814">
       <c r="A2814" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2814" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2814" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2814" t="inlineStr"/>
       <c r="E2814" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>-3K</t>
         </is>
       </c>
       <c r="H2814" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2815">
       <c r="A2815" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2815" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2815" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2815" t="inlineStr"/>
       <c r="E2815" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2815" t="inlineStr"/>
-      <c r="G2815" t="inlineStr"/>
+      <c r="G2815" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2815" t="inlineStr">
         <is>
           <t>2</t>
@@ -90890,27 +90872,31 @@
     <row r="2816">
       <c r="A2816" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2816" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2816" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2816" t="inlineStr"/>
       <c r="E2816" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2816" t="inlineStr"/>
-      <c r="G2816" t="inlineStr"/>
+      <c r="G2816" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2816" t="inlineStr">
         <is>
           <t>2</t>
@@ -90920,221 +90906,233 @@
     <row r="2817">
       <c r="A2817" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2817" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2817" t="inlineStr"/>
-      <c r="E2817" t="inlineStr"/>
+      <c r="E2817" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2817" t="inlineStr"/>
-      <c r="G2817" t="inlineStr"/>
+      <c r="G2817" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2817" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2818">
       <c r="A2818" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2818" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2818" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2818" t="inlineStr"/>
       <c r="E2818" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2818" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2819">
       <c r="A2819" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2819" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2819" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2819" t="inlineStr"/>
       <c r="E2819" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2819" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2820">
       <c r="A2820" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2820" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2820" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2820" t="inlineStr"/>
       <c r="E2820" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2820" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2821">
       <c r="A2821" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2821" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2821" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2821" t="inlineStr"/>
       <c r="E2821" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2821" t="inlineStr"/>
-      <c r="G2821" t="inlineStr"/>
+      <c r="G2821" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="H2821" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2822">
       <c r="A2822" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2822" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2822" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2822" t="inlineStr"/>
       <c r="E2822" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2822" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2823">
       <c r="A2823" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2823" t="inlineStr"/>
       <c r="E2823" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2823" t="inlineStr">
@@ -91146,29 +91144,29 @@
     <row r="2824">
       <c r="A2824" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2824" t="inlineStr"/>
       <c r="E2824" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="H2824" t="inlineStr">
@@ -91180,27 +91178,31 @@
     <row r="2825">
       <c r="A2825" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2825" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2825" t="inlineStr"/>
       <c r="E2825" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2825" t="inlineStr"/>
-      <c r="G2825" t="inlineStr"/>
+      <c r="G2825" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2825" t="inlineStr">
         <is>
           <t>3</t>
@@ -91210,27 +91212,31 @@
     <row r="2826">
       <c r="A2826" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2826" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2826" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2826" t="inlineStr"/>
       <c r="E2826" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2826" t="inlineStr"/>
-      <c r="G2826" t="inlineStr"/>
+      <c r="G2826" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2826" t="inlineStr">
         <is>
           <t>3</t>
@@ -91240,27 +91246,31 @@
     <row r="2827">
       <c r="A2827" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2827" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2827" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2827" t="inlineStr"/>
       <c r="E2827" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2827" t="inlineStr"/>
-      <c r="G2827" t="inlineStr"/>
+      <c r="G2827" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2827" t="inlineStr">
         <is>
           <t>3</t>
@@ -91270,23 +91280,31 @@
     <row r="2828">
       <c r="A2828" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2828" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2828" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2828" t="inlineStr"/>
-      <c r="E2828" t="inlineStr"/>
+      <c r="E2828" t="inlineStr">
+        <is>
+          <t>$609.1B</t>
+        </is>
+      </c>
       <c r="F2828" t="inlineStr"/>
-      <c r="G2828" t="inlineStr"/>
+      <c r="G2828" t="inlineStr">
+        <is>
+          <t>$607.0B</t>
+        </is>
+      </c>
       <c r="H2828" t="inlineStr">
         <is>
           <t>3</t>
@@ -91296,165 +91314,161 @@
     <row r="2829">
       <c r="A2829" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2829" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2829" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2829" t="inlineStr"/>
       <c r="E2829" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2829" t="inlineStr"/>
-      <c r="G2829" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2829" t="inlineStr"/>
       <c r="H2829" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2830">
       <c r="A2830" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2830" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2830" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2830" t="inlineStr"/>
       <c r="E2830" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2830" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2831">
       <c r="A2831" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2831" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2831" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2831" t="inlineStr"/>
       <c r="E2831" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2831" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2832">
       <c r="A2832" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2832" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2832" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2832" t="inlineStr"/>
       <c r="E2832" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2832" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2833">
       <c r="A2833" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2833" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2833" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2833" t="inlineStr"/>
       <c r="E2833" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2833" t="inlineStr">
@@ -91466,29 +91480,29 @@
     <row r="2834">
       <c r="A2834" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2834" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2834" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2834" t="inlineStr"/>
       <c r="E2834" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2834" t="inlineStr">
@@ -91500,29 +91514,29 @@
     <row r="2835">
       <c r="A2835" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2835" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2835" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2835" t="inlineStr"/>
       <c r="E2835" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2835" t="inlineStr">
@@ -91534,29 +91548,33 @@
     <row r="2836">
       <c r="A2836" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2836" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2836" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2836" t="inlineStr"/>
       <c r="E2836" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F2836" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2836" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2836" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2836" t="inlineStr">
@@ -91568,201 +91586,161 @@
     <row r="2837">
       <c r="A2837" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2837" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2837" t="inlineStr"/>
       <c r="E2837" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2837" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2838">
       <c r="A2838" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2838" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2838" t="inlineStr"/>
-      <c r="E2838" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2838" t="inlineStr"/>
       <c r="F2838" t="inlineStr"/>
-      <c r="G2838" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+      <c r="G2838" t="inlineStr"/>
       <c r="H2838" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2839">
       <c r="A2839" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2839" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2839" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2839" t="inlineStr"/>
-      <c r="E2839" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2839" t="inlineStr"/>
       <c r="F2839" t="inlineStr"/>
-      <c r="G2839" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2839" t="inlineStr"/>
       <c r="H2839" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2840">
-      <c r="A2840" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2840" t="inlineStr"/>
       <c r="B2840" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr"/>
       <c r="E2840" t="inlineStr">
         <is>
-          <t>33.5K</t>
+          <t>$1230.7B</t>
         </is>
       </c>
       <c r="F2840" t="inlineStr"/>
-      <c r="G2840" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
+      <c r="G2840" t="inlineStr"/>
       <c r="H2840" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2841">
-      <c r="A2841" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2841" t="inlineStr"/>
       <c r="B2841" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr"/>
       <c r="E2841" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2841" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2842">
-      <c r="A2842" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2842" t="inlineStr"/>
       <c r="B2842" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2842" t="inlineStr"/>
-      <c r="E2842" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="E2842" t="inlineStr"/>
       <c r="F2842" t="inlineStr"/>
-      <c r="G2842" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2842" t="inlineStr"/>
       <c r="H2842" t="inlineStr">
         <is>
           <t>3</t>
@@ -91770,45 +91748,37 @@
       </c>
     </row>
     <row r="2843">
-      <c r="A2843" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2843" t="inlineStr"/>
       <c r="B2843" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2843" t="inlineStr"/>
       <c r="E2843" t="inlineStr">
         <is>
-          <t>256K</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr">
         <is>
-          <t>205K</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2843" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2844">
-      <c r="A2844" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2844" t="inlineStr"/>
       <c r="B2844" t="inlineStr">
         <is>
           <t>US</t>
@@ -91816,33 +91786,25 @@
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
       <c r="E2844" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2844" t="inlineStr"/>
-      <c r="G2844" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="G2844" t="inlineStr"/>
       <c r="H2844" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2845">
-      <c r="A2845" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2845" t="inlineStr"/>
       <c r="B2845" t="inlineStr">
         <is>
           <t>US</t>
@@ -91850,99 +91812,75 @@
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
       <c r="E2845" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2845" t="inlineStr"/>
-      <c r="G2845" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2845" t="inlineStr"/>
       <c r="H2845" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2846" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2846" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2846" t="inlineStr"/>
+      <c r="C2846" t="inlineStr"/>
       <c r="D2846" t="inlineStr"/>
-      <c r="E2846" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="E2846" t="inlineStr"/>
       <c r="F2846" t="inlineStr"/>
-      <c r="G2846" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2846" t="inlineStr"/>
+      <c r="H2846" t="inlineStr"/>
     </row>
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
       <c r="E2847" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2847" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2848">
       <c r="A2848" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2848" t="inlineStr">
@@ -91952,19 +91890,19 @@
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
       <c r="E2848" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2848" t="inlineStr">
@@ -91976,231 +91914,191 @@
     <row r="2849">
       <c r="A2849" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2849" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2849" t="inlineStr">
-        <is>
-          <t>Government PayrollsJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2849" t="inlineStr"/>
+      <c r="C2849" t="inlineStr"/>
       <c r="D2849" t="inlineStr"/>
-      <c r="E2849" t="inlineStr">
-        <is>
-          <t>33K</t>
-        </is>
-      </c>
+      <c r="E2849" t="inlineStr"/>
       <c r="F2849" t="inlineStr"/>
-      <c r="G2849" t="inlineStr">
-        <is>
-          <t>25K</t>
-        </is>
-      </c>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2849" t="inlineStr"/>
+      <c r="H2849" t="inlineStr"/>
     </row>
     <row r="2850">
       <c r="A2850" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
       <c r="E2850" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2850" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2851">
       <c r="A2851" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2851" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
       <c r="E2852" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2852" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B2853" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2853" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
+          <t>Monday February 10 2025</t>
+        </is>
+      </c>
+      <c r="B2853" t="inlineStr"/>
+      <c r="C2853" t="inlineStr"/>
       <c r="D2853" t="inlineStr"/>
-      <c r="E2853" t="inlineStr">
-        <is>
-          <t>$609.1B</t>
-        </is>
-      </c>
+      <c r="E2853" t="inlineStr"/>
       <c r="F2853" t="inlineStr"/>
-      <c r="G2853" t="inlineStr">
-        <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2853" t="inlineStr"/>
+      <c r="H2853" t="inlineStr"/>
     </row>
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceJAN</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
       <c r="E2854" t="inlineStr">
         <is>
-          <t>TRY-323.9B</t>
+          <t>¥3352.5B</t>
         </is>
       </c>
       <c r="F2854" t="inlineStr"/>
-      <c r="G2854" t="inlineStr"/>
+      <c r="G2854" t="inlineStr">
+        <is>
+          <t>¥ 1840B</t>
+        </is>
+      </c>
       <c r="H2854" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2855">
       <c r="A2855" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2024</t>
+          <t>Bank Lending YoYJAN</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
       <c r="E2855" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2855" t="inlineStr"/>
-      <c r="G2855" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2855" t="inlineStr"/>
       <c r="H2855" t="inlineStr">
         <is>
           <t>3</t>
@@ -92210,65 +92108,53 @@
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
-      <c r="E2856" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
+      <c r="E2856" t="inlineStr"/>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2856" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>Private House Approvals MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
-      <c r="E2857" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="E2857" t="inlineStr"/>
       <c r="F2857" t="inlineStr"/>
-      <c r="G2857" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2857" t="inlineStr"/>
       <c r="H2857" t="inlineStr">
         <is>
           <t>3</t>
@@ -92278,31 +92164,27 @@
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>Eco Watchers Survey CurrentJAN</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2858" t="inlineStr"/>
-      <c r="G2858" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
+      <c r="G2858" t="inlineStr"/>
       <c r="H2858" t="inlineStr">
         <is>
           <t>3</t>
@@ -92312,31 +92194,27 @@
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>Eco Watchers Survey OutlookJAN</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr"/>
-      <c r="G2859" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+      <c r="G2859" t="inlineStr"/>
       <c r="H2859" t="inlineStr">
         <is>
           <t>3</t>
@@ -92346,31 +92224,27 @@
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.625%</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
-      <c r="G2860" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2860" t="inlineStr"/>
       <c r="H2860" t="inlineStr">
         <is>
           <t>3</t>
@@ -92378,642 +92252,26 @@
       </c>
     </row>
     <row r="2861">
-      <c r="A2861" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2861" t="inlineStr"/>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>Motorbike Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2861" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2861" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+          <t>-5.5%</t>
+        </is>
+      </c>
+      <c r="F2861" t="inlineStr"/>
+      <c r="G2861" t="inlineStr"/>
       <c r="H2861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2862">
-      <c r="A2862" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2862" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2862" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2862" t="inlineStr"/>
-      <c r="E2862" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2862" t="inlineStr"/>
-      <c r="G2862" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2863">
-      <c r="A2863" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2863" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2863" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2863" t="inlineStr"/>
-      <c r="E2863" t="inlineStr"/>
-      <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2864">
-      <c r="A2864" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2864" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2864" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2864" t="inlineStr"/>
-      <c r="E2864" t="inlineStr"/>
-      <c r="F2864" t="inlineStr"/>
-      <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2865">
-      <c r="A2865" t="inlineStr"/>
-      <c r="B2865" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2865" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr">
-        <is>
-          <t>$1230.7B</t>
-        </is>
-      </c>
-      <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr"/>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2866">
-      <c r="A2866" t="inlineStr"/>
-      <c r="B2866" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2866" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2866" t="inlineStr"/>
-      <c r="E2866" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2867">
-      <c r="A2867" t="inlineStr"/>
-      <c r="B2867" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2867" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2867" t="inlineStr"/>
-      <c r="E2867" t="inlineStr"/>
-      <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr"/>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2868">
-      <c r="A2868" t="inlineStr"/>
-      <c r="B2868" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2868" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2868" t="inlineStr"/>
-      <c r="E2868" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2869">
-      <c r="A2869" t="inlineStr"/>
-      <c r="B2869" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2869" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2869" t="inlineStr"/>
-      <c r="E2869" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2869" t="inlineStr"/>
-      <c r="G2869" t="inlineStr"/>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2870">
-      <c r="A2870" t="inlineStr"/>
-      <c r="B2870" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2870" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2870" t="inlineStr"/>
-      <c r="E2870" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2870" t="inlineStr"/>
-      <c r="G2870" t="inlineStr"/>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2871">
-      <c r="A2871" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2871" t="inlineStr"/>
-      <c r="C2871" t="inlineStr"/>
-      <c r="D2871" t="inlineStr"/>
-      <c r="E2871" t="inlineStr"/>
-      <c r="F2871" t="inlineStr"/>
-      <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="inlineStr"/>
-    </row>
-    <row r="2872">
-      <c r="A2872" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2872" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2872" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2872" t="inlineStr"/>
-      <c r="E2872" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2873">
-      <c r="A2873" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2873" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2873" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2873" t="inlineStr"/>
-      <c r="E2873" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2873" t="inlineStr"/>
-      <c r="G2873" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2874">
-      <c r="A2874" t="inlineStr">
-        <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2874" t="inlineStr"/>
-      <c r="C2874" t="inlineStr"/>
-      <c r="D2874" t="inlineStr"/>
-      <c r="E2874" t="inlineStr"/>
-      <c r="F2874" t="inlineStr"/>
-      <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr"/>
-    </row>
-    <row r="2875">
-      <c r="A2875" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2875" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2875" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2875" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2876">
-      <c r="A2876" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2876" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2876" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2876" t="inlineStr"/>
-      <c r="E2876" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2876" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2877">
-      <c r="A2877" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2877" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2877" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2877" t="inlineStr"/>
-      <c r="E2877" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2877" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2878">
-      <c r="A2878" t="inlineStr">
-        <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B2878" t="inlineStr"/>
-      <c r="C2878" t="inlineStr"/>
-      <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr"/>
-      <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr"/>
-      <c r="H2878" t="inlineStr"/>
-    </row>
-    <row r="2879">
-      <c r="A2879" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B2879" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2879" t="inlineStr">
-        <is>
-          <t>Current AccountDEC</t>
-        </is>
-      </c>
-      <c r="D2879" t="inlineStr"/>
-      <c r="E2879" t="inlineStr">
-        <is>
-          <t>¥3352.5B</t>
-        </is>
-      </c>
-      <c r="F2879" t="inlineStr"/>
-      <c r="G2879" t="inlineStr">
-        <is>
-          <t>¥ 1840B</t>
-        </is>
-      </c>
-      <c r="H2879" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2880">
-      <c r="A2880" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B2880" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2880" t="inlineStr">
-        <is>
-          <t>Bank Lending YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2880" t="inlineStr"/>
-      <c r="E2880" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="F2880" t="inlineStr"/>
-      <c r="G2880" t="inlineStr"/>
-      <c r="H2880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2881">
-      <c r="A2881" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2881" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2881" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D2881" t="inlineStr"/>
-      <c r="E2881" t="inlineStr"/>
-      <c r="F2881" t="inlineStr"/>
-      <c r="G2881" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2882">
-      <c r="A2882" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2882" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2882" t="inlineStr">
-        <is>
-          <t>Private House Approvals MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D2882" t="inlineStr"/>
-      <c r="E2882" t="inlineStr"/>
-      <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr"/>
-      <c r="H2882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2883">
-      <c r="A2883" t="inlineStr"/>
-      <c r="B2883" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2883" t="inlineStr">
-        <is>
-          <t>Motorbike Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2883" t="inlineStr"/>
-      <c r="E2883" t="inlineStr">
-        <is>
-          <t>-5.5%</t>
-        </is>
-      </c>
-      <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr"/>
-      <c r="H2883" t="inlineStr">
         <is>
           <t>3</t>
         </is>
